--- a/basicquiz.xlsx
+++ b/basicquiz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pothugunta.Charitha\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pothugunta.Charitha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DB5843-9786-4417-8152-BBE08EC8563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC7A5C0-97B1-4468-9DDE-3C0E9749DCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{529AE8B2-C476-49E9-9A0B-46DE93F4DD5B}"/>
+    <workbookView xWindow="2820" yWindow="1605" windowWidth="15375" windowHeight="7875" xr2:uid="{529AE8B2-C476-49E9-9A0B-46DE93F4DD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>GK</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +446,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2">
         <v>12</v>
       </c>
@@ -463,6 +466,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>13</v>
       </c>
@@ -488,11 +494,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>3</v>
       </c>

--- a/basicquiz.xlsx
+++ b/basicquiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pothugunta.Charitha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC7A5C0-97B1-4468-9DDE-3C0E9749DCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48B626-1752-4317-A935-2BE7AB0C3197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="1605" windowWidth="15375" windowHeight="7875" xr2:uid="{529AE8B2-C476-49E9-9A0B-46DE93F4DD5B}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
